--- a/biology/Zoologie/Haemaphysalis_hystricis/Haemaphysalis_hystricis.xlsx
+++ b/biology/Zoologie/Haemaphysalis_hystricis/Haemaphysalis_hystricis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haemaphysalis hystricis est une espèce de tiques du genre Haemaphysalis décrite par Felice Supino en 1897[2]. Cette tique se trouve en Asie, dans le Bengale-Occidental et l'Assam en Inde, le Myanmar, la Thaïlande, le Viêt Nam, la Malaisie, dans les provinces chinoises du Yunnan, de Guangdong, de Fujian, de Hainan et à Taïwan, à Sumatra et au Japon[1].
-Les adultes parasitent de nombreux carnivores[1], telle la Panthère nébuleuse[3] et des ongulés, tandis que les immatures sont plutôt présents sur les mammifères de taille petite à moyenne[1]. Quelques cas de morsures sur l'homme sont répertoriés, dont quatre au Japon[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haemaphysalis hystricis est une espèce de tiques du genre Haemaphysalis décrite par Felice Supino en 1897. Cette tique se trouve en Asie, dans le Bengale-Occidental et l'Assam en Inde, le Myanmar, la Thaïlande, le Viêt Nam, la Malaisie, dans les provinces chinoises du Yunnan, de Guangdong, de Fujian, de Hainan et à Taïwan, à Sumatra et au Japon.
+Les adultes parasitent de nombreux carnivores, telle la Panthère nébuleuse et des ongulés, tandis que les immatures sont plutôt présents sur les mammifères de taille petite à moyenne. Quelques cas de morsures sur l'homme sont répertoriés, dont quatre au Japon.
 </t>
         </is>
       </c>
